--- a/utils/modelo_invoice.xlsx
+++ b/utils/modelo_invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodolfo\Desktop\confronto_nfe_invoice\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodolfo\Documents\codigos\git\confronto_nfe_invoice\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC82A80-3A6B-492F-A254-7B87FC148AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B2E0F-88E9-4F3D-AB93-4D9CD0A9CE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,6 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,8 +106,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,13 +414,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="31" width="5" customWidth="1"/>
+    <col min="34" max="35" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
